--- a/Code/Results/Cases/Case_2_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9552085726001849</v>
+        <v>1.023643463743952</v>
       </c>
       <c r="C2">
-        <v>0.1605649540116758</v>
+        <v>0.05788276602740439</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0102026096372585</v>
+        <v>0.06134033502016667</v>
       </c>
       <c r="F2">
-        <v>2.975656240787885</v>
+        <v>3.842325465167491</v>
       </c>
       <c r="G2">
-        <v>0.0008636267829504766</v>
+        <v>0.002616019851042745</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.132445041843127</v>
+        <v>2.629367751676099</v>
       </c>
       <c r="J2">
-        <v>0.1723650067239149</v>
+        <v>0.2241015726975704</v>
       </c>
       <c r="K2">
-        <v>1.054871831457945</v>
+        <v>0.877827429337998</v>
       </c>
       <c r="L2">
-        <v>0.1619027895000187</v>
+        <v>0.2903447702666355</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8384105220965523</v>
+        <v>1.003516219353287</v>
       </c>
       <c r="C3">
-        <v>0.1389022308585055</v>
+        <v>0.05160322450069543</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.009645718652534718</v>
+        <v>0.06188302836830228</v>
       </c>
       <c r="F3">
-        <v>2.778538302491256</v>
+        <v>3.800210721870201</v>
       </c>
       <c r="G3">
-        <v>0.0008707586710647335</v>
+        <v>0.002620337673464495</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.02054248804626</v>
+        <v>2.601467862254395</v>
       </c>
       <c r="J3">
-        <v>0.17070571979081</v>
+        <v>0.2230171137506076</v>
       </c>
       <c r="K3">
-        <v>0.9222414539245563</v>
+        <v>0.8503903270264743</v>
       </c>
       <c r="L3">
-        <v>0.1442975210061945</v>
+        <v>0.289105940335908</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7680540407486092</v>
+        <v>0.9918986349595684</v>
       </c>
       <c r="C4">
-        <v>0.125826743747254</v>
+        <v>0.04776396059111221</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.009322542979484538</v>
+        <v>0.06224963635143865</v>
       </c>
       <c r="F4">
-        <v>2.660926399042339</v>
+        <v>3.775614221938454</v>
       </c>
       <c r="G4">
-        <v>0.0008752646548996875</v>
+        <v>0.002623128644294708</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.953889914226338</v>
+        <v>2.584952582656854</v>
       </c>
       <c r="J4">
-        <v>0.1697302634717879</v>
+        <v>0.222348459337173</v>
       </c>
       <c r="K4">
-        <v>0.8422933676587832</v>
+        <v>0.8341681890806854</v>
       </c>
       <c r="L4">
-        <v>0.1337322126593605</v>
+        <v>0.2885405093953395</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7396918334470399</v>
+        <v>0.9873507986899597</v>
       </c>
       <c r="C5">
-        <v>0.1205475098835933</v>
+        <v>0.04620343232220137</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.009195512734847533</v>
+        <v>0.06240745944513915</v>
       </c>
       <c r="F5">
-        <v>2.613792063808802</v>
+        <v>3.765907989305575</v>
       </c>
       <c r="G5">
-        <v>0.0008771338573243487</v>
+        <v>0.00262430125812244</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.927204838252393</v>
+        <v>2.5783767733774</v>
       </c>
       <c r="J5">
-        <v>0.1693427017826501</v>
+        <v>0.2220752347219062</v>
       </c>
       <c r="K5">
-        <v>0.8100485129152446</v>
+        <v>0.8277144835671493</v>
       </c>
       <c r="L5">
-        <v>0.1294837049961686</v>
+        <v>0.2883592839806326</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7350000349510992</v>
+        <v>0.9866068991885584</v>
       </c>
       <c r="C6">
-        <v>0.1196736537330452</v>
+        <v>0.04594454603919473</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.00917469994745268</v>
+        <v>0.06243417574606358</v>
       </c>
       <c r="F6">
-        <v>2.606011510485686</v>
+        <v>3.764315415762582</v>
       </c>
       <c r="G6">
-        <v>0.0008774462580357961</v>
+        <v>0.002624498103537284</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.922801437427836</v>
+        <v>2.577294171918538</v>
       </c>
       <c r="J6">
-        <v>0.1692789212991102</v>
+        <v>0.2220298199501656</v>
       </c>
       <c r="K6">
-        <v>0.8047133920143494</v>
+        <v>0.8266523286299048</v>
       </c>
       <c r="L6">
-        <v>0.128781556528935</v>
+        <v>0.2883321658139266</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7676703301881673</v>
+        <v>0.9918365461752501</v>
       </c>
       <c r="C7">
-        <v>0.1257553568215286</v>
+        <v>0.04774289871315318</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.009320810972846871</v>
+        <v>0.06225173064568335</v>
       </c>
       <c r="F7">
-        <v>2.660287600672476</v>
+        <v>3.775482037057458</v>
       </c>
       <c r="G7">
-        <v>0.0008752897286555268</v>
+        <v>0.002623144315598229</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.953528152821093</v>
+        <v>2.58486327482656</v>
       </c>
       <c r="J7">
-        <v>0.1697249976328941</v>
+        <v>0.2223447775945822</v>
       </c>
       <c r="K7">
-        <v>0.8418571973656981</v>
+        <v>0.8340805167409826</v>
       </c>
       <c r="L7">
-        <v>0.1336746909877533</v>
+        <v>0.2885378660095341</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9146342037470276</v>
+        <v>1.016549973135483</v>
       </c>
       <c r="C8">
-        <v>0.1530441001284828</v>
+        <v>0.05571410152323608</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01000666807002304</v>
+        <v>0.0615205434588102</v>
       </c>
       <c r="F8">
-        <v>2.906938912372681</v>
+        <v>3.827542129359429</v>
       </c>
       <c r="G8">
-        <v>0.0008660601568131297</v>
+        <v>0.002617479687663682</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.093408975498988</v>
+        <v>2.619619876593404</v>
       </c>
       <c r="J8">
-        <v>0.1717832906185173</v>
+        <v>0.2237282063112112</v>
       </c>
       <c r="K8">
-        <v>1.00880749395543</v>
+        <v>0.8682374870213323</v>
       </c>
       <c r="L8">
-        <v>0.1557789473739746</v>
+        <v>0.2898771650185097</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.215228740182425</v>
+        <v>1.070885952617374</v>
       </c>
       <c r="C9">
-        <v>0.2087213849016791</v>
+        <v>0.07148195686762904</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01150316605440871</v>
+        <v>0.06035031013601788</v>
       </c>
       <c r="F9">
-        <v>3.421007990463181</v>
+        <v>3.939669453013295</v>
       </c>
       <c r="G9">
-        <v>0.0008489172854890481</v>
+        <v>0.002607475480412598</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.386020468310392</v>
+        <v>2.692684529533054</v>
       </c>
       <c r="J9">
-        <v>0.1762103448000545</v>
+        <v>0.2264208564247809</v>
       </c>
       <c r="K9">
-        <v>1.349946814613446</v>
+        <v>0.940180851669453</v>
       </c>
       <c r="L9">
-        <v>0.2012871387201614</v>
+        <v>0.2940486086012726</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.446129651479112</v>
+        <v>1.114389266328715</v>
       </c>
       <c r="C10">
-        <v>0.2515244694405681</v>
+        <v>0.08315944694155064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.01269943551655039</v>
+        <v>0.05964949127557873</v>
       </c>
       <c r="F10">
-        <v>3.822186870041094</v>
+        <v>4.028212905653135</v>
       </c>
       <c r="G10">
-        <v>0.0008368276467867063</v>
+        <v>0.002600791161272466</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.615199109931922</v>
+        <v>2.749397169948921</v>
       </c>
       <c r="J10">
-        <v>0.1797723168775249</v>
+        <v>0.2283895607469617</v>
       </c>
       <c r="K10">
-        <v>1.611958668911882</v>
+        <v>0.9960807796828703</v>
       </c>
       <c r="L10">
-        <v>0.2363807430818667</v>
+        <v>0.2980511171317204</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.553979643190786</v>
+        <v>1.134959091673579</v>
       </c>
       <c r="C11">
-        <v>0.2715541544208691</v>
+        <v>0.0884941678029918</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0132658004721371</v>
+        <v>0.05936481840089236</v>
       </c>
       <c r="F11">
-        <v>4.011027271247855</v>
+        <v>4.069842317182179</v>
       </c>
       <c r="G11">
-        <v>0.0008314183018911514</v>
+        <v>0.002597893296728303</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.723294961806531</v>
+        <v>2.775864740629771</v>
       </c>
       <c r="J11">
-        <v>0.1814776564268143</v>
+        <v>0.2292836894152046</v>
       </c>
       <c r="K11">
-        <v>1.734374922336968</v>
+        <v>1.022176463531594</v>
       </c>
       <c r="L11">
-        <v>0.2527904984060854</v>
+        <v>0.3000747956968866</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.595282098556822</v>
+        <v>1.142860472199004</v>
       </c>
       <c r="C12">
-        <v>0.2792328499180883</v>
+        <v>0.09051768547948313</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01348356015970431</v>
+        <v>0.05926189871420107</v>
       </c>
       <c r="F12">
-        <v>4.083562405687388</v>
+        <v>4.08580109527955</v>
       </c>
       <c r="G12">
-        <v>0.0008293811454189036</v>
+        <v>0.002596816376006438</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.764850349790095</v>
+        <v>2.785984074143585</v>
       </c>
       <c r="J12">
-        <v>0.1821372991526928</v>
+        <v>0.2296221092477708</v>
       </c>
       <c r="K12">
-        <v>1.781264618529747</v>
+        <v>1.032154294846407</v>
       </c>
       <c r="L12">
-        <v>0.2590763141864301</v>
+        <v>0.3008702083497354</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.586365343118132</v>
+        <v>1.141153787622557</v>
       </c>
       <c r="C13">
-        <v>0.2775746964427697</v>
+        <v>0.09008173259272212</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01343651369145249</v>
+        <v>0.0592838477335409</v>
       </c>
       <c r="F13">
-        <v>4.067893131283313</v>
+        <v>4.082355424263653</v>
       </c>
       <c r="G13">
-        <v>0.0008298194130047309</v>
+        <v>0.002597047402823982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.755871813530135</v>
+        <v>2.783800388917172</v>
       </c>
       <c r="J13">
-        <v>0.1819945883805971</v>
+        <v>0.229549231279627</v>
       </c>
       <c r="K13">
-        <v>1.771141176101281</v>
+        <v>1.030001120452141</v>
       </c>
       <c r="L13">
-        <v>0.2577192264240864</v>
+        <v>0.3006976096505554</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.557368009381236</v>
+        <v>1.135606898339518</v>
       </c>
       <c r="C14">
-        <v>0.272183920205407</v>
+        <v>0.08866057544460659</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0132836491495798</v>
+        <v>0.0593562535013632</v>
       </c>
       <c r="F14">
-        <v>4.016973539086905</v>
+        <v>4.071151352517603</v>
       </c>
       <c r="G14">
-        <v>0.0008312504889452531</v>
+        <v>0.002597804288772634</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.726700862474132</v>
+        <v>2.776695324749483</v>
       </c>
       <c r="J14">
-        <v>0.1815316376332206</v>
+        <v>0.2293115345399599</v>
       </c>
       <c r="K14">
-        <v>1.738221452350189</v>
+        <v>1.022995421795173</v>
       </c>
       <c r="L14">
-        <v>0.2533061502021638</v>
+        <v>0.3001396522851678</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.539668288562581</v>
+        <v>1.132223855178694</v>
       </c>
       <c r="C15">
-        <v>0.2688945712321242</v>
+        <v>0.08779051897829504</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01319044677489778</v>
+        <v>0.0594012387701337</v>
       </c>
       <c r="F15">
-        <v>3.985920917107649</v>
+        <v>4.064313893208123</v>
       </c>
       <c r="G15">
-        <v>0.0008321284741469619</v>
+        <v>0.002598270561748674</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.708915978145001</v>
+        <v>2.772355867286038</v>
       </c>
       <c r="J15">
-        <v>0.1812499248207757</v>
+        <v>0.2291659178351964</v>
       </c>
       <c r="K15">
-        <v>1.718128815710372</v>
+        <v>1.018716729800531</v>
       </c>
       <c r="L15">
-        <v>0.250612606746742</v>
+        <v>0.2998016729668649</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.4391427741283</v>
+        <v>1.113060663835228</v>
       </c>
       <c r="C16">
-        <v>0.2502278456493343</v>
+        <v>0.08281127558609569</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01266287683747791</v>
+        <v>0.05966877971641438</v>
       </c>
       <c r="F16">
-        <v>3.809982756455241</v>
+        <v>4.025519537669851</v>
       </c>
       <c r="G16">
-        <v>0.0008371828324169306</v>
+        <v>0.002600983409398502</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.608217865738482</v>
+        <v>2.747680949028194</v>
       </c>
       <c r="J16">
-        <v>0.1796627158518262</v>
+        <v>0.2283311017272567</v>
       </c>
       <c r="K16">
-        <v>1.604029157261976</v>
+        <v>0.9943887873454571</v>
       </c>
       <c r="L16">
-        <v>0.2353179352199959</v>
+        <v>0.2979229404800634</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.378232967325403</v>
+        <v>1.101504340969228</v>
       </c>
       <c r="C17">
-        <v>0.2389286240982784</v>
+        <v>0.07976254367027025</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01234497788634847</v>
+        <v>0.05984162933195059</v>
       </c>
       <c r="F17">
-        <v>3.703751870473383</v>
+        <v>4.002066659774016</v>
       </c>
       <c r="G17">
-        <v>0.0008403054599537108</v>
+        <v>0.002602684169124791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.547473918060419</v>
+        <v>2.732715298663052</v>
       </c>
       <c r="J17">
-        <v>0.1787118986776193</v>
+        <v>0.2278186279014989</v>
       </c>
       <c r="K17">
-        <v>1.534906013177419</v>
+        <v>0.9796351761257256</v>
       </c>
       <c r="L17">
-        <v>0.2260545162961876</v>
+        <v>0.2968223065131212</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.3434601421487</v>
+        <v>1.094930868994425</v>
       </c>
       <c r="C18">
-        <v>0.2324812654893407</v>
+        <v>0.07801111054013177</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01216421147377211</v>
+        <v>0.0599442623214177</v>
       </c>
       <c r="F18">
-        <v>3.643240189087265</v>
+        <v>3.988704279801652</v>
       </c>
       <c r="G18">
-        <v>0.0008421101251518681</v>
+        <v>0.002603675854585245</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.512892614665716</v>
+        <v>2.724170365468993</v>
       </c>
       <c r="J18">
-        <v>0.1781729042256188</v>
+        <v>0.227523728114889</v>
       </c>
       <c r="K18">
-        <v>1.495447253758499</v>
+        <v>0.9712120182739454</v>
       </c>
       <c r="L18">
-        <v>0.2207678683215732</v>
+        <v>0.2962083557668223</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.331729810306541</v>
+        <v>1.092717818016325</v>
       </c>
       <c r="C19">
-        <v>0.2303067825568235</v>
+        <v>0.07741846503286354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01210336153124558</v>
+        <v>0.05997956504961444</v>
       </c>
       <c r="F19">
-        <v>3.622849953547245</v>
+        <v>3.984201823643275</v>
       </c>
       <c r="G19">
-        <v>0.0008427226831240277</v>
+        <v>0.002604013936018171</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.501243293787624</v>
+        <v>2.721287988678242</v>
       </c>
       <c r="J19">
-        <v>0.1779917177452326</v>
+        <v>0.2274238551071477</v>
       </c>
       <c r="K19">
-        <v>1.482136560678498</v>
+        <v>0.9683708521267818</v>
       </c>
       <c r="L19">
-        <v>0.2189847918030097</v>
+        <v>0.2960037666244659</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.384689521558556</v>
+        <v>1.102726933571887</v>
       </c>
       <c r="C20">
-        <v>0.2401260057852994</v>
+        <v>0.08008686637128903</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01237860273682756</v>
+        <v>0.05982289671844043</v>
       </c>
       <c r="F20">
-        <v>3.714998532351927</v>
+        <v>4.004550101848224</v>
       </c>
       <c r="G20">
-        <v>0.0008399721716038324</v>
+        <v>0.002602501728774383</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.553902785333392</v>
+        <v>2.734301902982281</v>
       </c>
       <c r="J20">
-        <v>0.1788122867754396</v>
+        <v>0.2278731956453655</v>
       </c>
       <c r="K20">
-        <v>1.542232860427134</v>
+        <v>0.9811992301933685</v>
       </c>
       <c r="L20">
-        <v>0.227036282089685</v>
+        <v>0.2969374942603906</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.565872200136539</v>
+        <v>1.137233114532307</v>
       </c>
       <c r="C21">
-        <v>0.2737646576279928</v>
+        <v>0.0890779111302038</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01332845903705326</v>
+        <v>0.05933485396321991</v>
       </c>
       <c r="F21">
-        <v>4.031901067287379</v>
+        <v>4.074436974614571</v>
       </c>
       <c r="G21">
-        <v>0.0008308298568177348</v>
+        <v>0.002597581419410051</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.735251612014608</v>
+        <v>2.778779627743091</v>
       </c>
       <c r="J21">
-        <v>0.1816672271133939</v>
+        <v>0.2293813560529827</v>
       </c>
       <c r="K21">
-        <v>1.74787570765767</v>
+        <v>1.025050559952575</v>
       </c>
       <c r="L21">
-        <v>0.2546003635267482</v>
+        <v>0.3003027491147208</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.687009867089557</v>
+        <v>1.160437868970661</v>
       </c>
       <c r="C22">
-        <v>0.2963041899156167</v>
+        <v>0.09497380920615228</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01396847377076327</v>
+        <v>0.05904431969451096</v>
       </c>
       <c r="F22">
-        <v>4.245053212558162</v>
+        <v>4.121246697126765</v>
       </c>
       <c r="G22">
-        <v>0.0008249194324731339</v>
+        <v>0.002594484790429979</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.857435701531855</v>
+        <v>2.808411901009151</v>
       </c>
       <c r="J22">
-        <v>0.1836148239999389</v>
+        <v>0.2303660696078396</v>
       </c>
       <c r="K22">
-        <v>1.885421694788477</v>
+        <v>1.054269340358218</v>
       </c>
       <c r="L22">
-        <v>0.2730377512340993</v>
+        <v>0.3026716531828413</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.622086424691247</v>
+        <v>1.14799334582014</v>
       </c>
       <c r="C23">
-        <v>0.2842187488155901</v>
+        <v>0.09182520928501958</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01362509031653047</v>
+        <v>0.05919679132494338</v>
       </c>
       <c r="F23">
-        <v>4.13069681815</v>
+        <v>4.096159511488281</v>
       </c>
       <c r="G23">
-        <v>0.0008280686474581597</v>
+        <v>0.002596126658777342</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.791863783619959</v>
+        <v>2.792544879211519</v>
       </c>
       <c r="J23">
-        <v>0.1825672848395783</v>
+        <v>0.2298405836500592</v>
       </c>
       <c r="K23">
-        <v>1.811697918377064</v>
+        <v>1.038623501295717</v>
       </c>
       <c r="L23">
-        <v>0.2631559298135357</v>
+        <v>0.3013918430145139</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.381769754442331</v>
+        <v>1.102173980123723</v>
       </c>
       <c r="C24">
-        <v>0.2395845187982815</v>
+        <v>0.07994023596631905</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01236339472629666</v>
+        <v>0.05983135557835517</v>
       </c>
       <c r="F24">
-        <v>3.709912174842657</v>
+        <v>4.003426960834872</v>
       </c>
       <c r="G24">
-        <v>0.0008401228217514571</v>
+        <v>0.002602584166743012</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.550995236834538</v>
+        <v>2.733584415362884</v>
       </c>
       <c r="J24">
-        <v>0.1787668776325759</v>
+        <v>0.2278485264176311</v>
       </c>
       <c r="K24">
-        <v>1.538919522510952</v>
+        <v>0.9804919379263026</v>
       </c>
       <c r="L24">
-        <v>0.2265923048265535</v>
+        <v>0.2968853592572458</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.132339183085577</v>
+        <v>1.055557676970977</v>
       </c>
       <c r="C25">
-        <v>0.1933713436068416</v>
+        <v>0.06720073490969014</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01108167535726778</v>
+        <v>0.06063884963562227</v>
       </c>
       <c r="F25">
-        <v>3.27819952620635</v>
+        <v>3.90825688241506</v>
       </c>
       <c r="G25">
-        <v>0.0008534601384463899</v>
+        <v>0.002610064440153205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.304604407120365</v>
+        <v>2.672389079676549</v>
       </c>
       <c r="J25">
-        <v>0.1749639181017386</v>
+        <v>0.2256943050297977</v>
       </c>
       <c r="K25">
-        <v>1.255895661051312</v>
+        <v>0.9201852182338257</v>
       </c>
       <c r="L25">
-        <v>0.1887111879403847</v>
+        <v>0.2927551490967204</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_151/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.023643463743952</v>
+        <v>0.9552085726001849</v>
       </c>
       <c r="C2">
-        <v>0.05788276602740439</v>
+        <v>0.1605649540116616</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06134033502016667</v>
+        <v>0.01020260963727004</v>
       </c>
       <c r="F2">
-        <v>3.842325465167491</v>
+        <v>2.97565624078787</v>
       </c>
       <c r="G2">
-        <v>0.002616019851042745</v>
+        <v>0.0008636267830008764</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.629367751676099</v>
+        <v>2.132445041843127</v>
       </c>
       <c r="J2">
-        <v>0.2241015726975704</v>
+        <v>0.1723650067238189</v>
       </c>
       <c r="K2">
-        <v>0.877827429337998</v>
+        <v>1.054871831458001</v>
       </c>
       <c r="L2">
-        <v>0.2903447702666355</v>
+        <v>0.1619027894998553</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.003516219353287</v>
+        <v>0.8384105220965807</v>
       </c>
       <c r="C3">
-        <v>0.05160322450069543</v>
+        <v>0.1389022308587329</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06188302836830228</v>
+        <v>0.009645718652585344</v>
       </c>
       <c r="F3">
-        <v>3.800210721870201</v>
+        <v>2.77853830249127</v>
       </c>
       <c r="G3">
-        <v>0.002620337673464495</v>
+        <v>0.0008707586710039688</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.601467862254395</v>
+        <v>2.020542488046289</v>
       </c>
       <c r="J3">
-        <v>0.2230171137506076</v>
+        <v>0.1707057197908135</v>
       </c>
       <c r="K3">
-        <v>0.8503903270264743</v>
+        <v>0.9222414539245563</v>
       </c>
       <c r="L3">
-        <v>0.289105940335908</v>
+        <v>0.1442975210062585</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9918986349595684</v>
+        <v>0.7680540407486376</v>
       </c>
       <c r="C4">
-        <v>0.04776396059111221</v>
+        <v>0.1258267437472256</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06224963635143865</v>
+        <v>0.009322542979515624</v>
       </c>
       <c r="F4">
-        <v>3.775614221938454</v>
+        <v>2.660926399042324</v>
       </c>
       <c r="G4">
-        <v>0.002623128644294708</v>
+        <v>0.0008752646548354052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.584952582656854</v>
+        <v>1.953889914226323</v>
       </c>
       <c r="J4">
-        <v>0.222348459337173</v>
+        <v>0.1697302634719087</v>
       </c>
       <c r="K4">
-        <v>0.8341681890806854</v>
+        <v>0.8422933676587832</v>
       </c>
       <c r="L4">
-        <v>0.2885405093953395</v>
+        <v>0.1337322126594387</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9873507986899597</v>
+        <v>0.739691833446841</v>
       </c>
       <c r="C5">
-        <v>0.04620343232220137</v>
+        <v>0.1205475098833517</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06240745944513915</v>
+        <v>0.009195512734846645</v>
       </c>
       <c r="F5">
-        <v>3.765907989305575</v>
+        <v>2.61379206380883</v>
       </c>
       <c r="G5">
-        <v>0.00262430125812244</v>
+        <v>0.0008771338573303478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.5783767733774</v>
+        <v>1.927204838252408</v>
       </c>
       <c r="J5">
-        <v>0.2220752347219062</v>
+        <v>0.1693427017825293</v>
       </c>
       <c r="K5">
-        <v>0.8277144835671493</v>
+        <v>0.8100485129151593</v>
       </c>
       <c r="L5">
-        <v>0.2883592839806326</v>
+        <v>0.1294837049961686</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9866068991885584</v>
+        <v>0.735000034951014</v>
       </c>
       <c r="C6">
-        <v>0.04594454603919473</v>
+        <v>0.1196736537328036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06243417574606358</v>
+        <v>0.00917469994740916</v>
       </c>
       <c r="F6">
-        <v>3.764315415762582</v>
+        <v>2.606011510485743</v>
       </c>
       <c r="G6">
-        <v>0.002624498103537284</v>
+        <v>0.0008774462582018716</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.577294171918538</v>
+        <v>1.922801437427907</v>
       </c>
       <c r="J6">
-        <v>0.2220298199501656</v>
+        <v>0.1692789212991173</v>
       </c>
       <c r="K6">
-        <v>0.8266523286299048</v>
+        <v>0.80471339201452</v>
       </c>
       <c r="L6">
-        <v>0.2883321658139266</v>
+        <v>0.1287815565289918</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9918365461752501</v>
+        <v>0.7676703301880821</v>
       </c>
       <c r="C7">
-        <v>0.04774289871315318</v>
+        <v>0.1257553568215428</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06225173064568335</v>
+        <v>0.009320810972827331</v>
       </c>
       <c r="F7">
-        <v>3.775482037057458</v>
+        <v>2.660287600672518</v>
       </c>
       <c r="G7">
-        <v>0.002623144315598229</v>
+        <v>0.0008752897287616079</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.58486327482656</v>
+        <v>1.953528152821079</v>
       </c>
       <c r="J7">
-        <v>0.2223447775945822</v>
+        <v>0.1697249976328763</v>
       </c>
       <c r="K7">
-        <v>0.8340805167409826</v>
+        <v>0.8418571973656128</v>
       </c>
       <c r="L7">
-        <v>0.2885378660095341</v>
+        <v>0.1336746909877533</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.016549973135483</v>
+        <v>0.9146342037472834</v>
       </c>
       <c r="C8">
-        <v>0.05571410152323608</v>
+        <v>0.153044100128767</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0615205434588102</v>
+        <v>0.01000666807003725</v>
       </c>
       <c r="F8">
-        <v>3.827542129359429</v>
+        <v>2.906938912372695</v>
       </c>
       <c r="G8">
-        <v>0.002617479687663682</v>
+        <v>0.0008660601568790474</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.619619876593404</v>
+        <v>2.093408975498988</v>
       </c>
       <c r="J8">
-        <v>0.2237282063112112</v>
+        <v>0.1717832906185244</v>
       </c>
       <c r="K8">
-        <v>0.8682374870213323</v>
+        <v>1.008807493955317</v>
       </c>
       <c r="L8">
-        <v>0.2898771650185097</v>
+        <v>0.1557789473739888</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.070885952617374</v>
+        <v>1.215228740182397</v>
       </c>
       <c r="C9">
-        <v>0.07148195686762904</v>
+        <v>0.2087213849016649</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06035031013601788</v>
+        <v>0.01150316605442292</v>
       </c>
       <c r="F9">
-        <v>3.939669453013295</v>
+        <v>3.421007990463181</v>
       </c>
       <c r="G9">
-        <v>0.002607475480412598</v>
+        <v>0.0008489172855429125</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.692684529533054</v>
+        <v>2.38602046831042</v>
       </c>
       <c r="J9">
-        <v>0.2264208564247809</v>
+        <v>0.1762103447999408</v>
       </c>
       <c r="K9">
-        <v>0.940180851669453</v>
+        <v>1.349946814613418</v>
       </c>
       <c r="L9">
-        <v>0.2940486086012726</v>
+        <v>0.2012871387200761</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.114389266328715</v>
+        <v>1.44612965147914</v>
       </c>
       <c r="C10">
-        <v>0.08315944694155064</v>
+        <v>0.2515244694407954</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05964949127557873</v>
+        <v>0.0126994355165575</v>
       </c>
       <c r="F10">
-        <v>4.028212905653135</v>
+        <v>3.822186870041122</v>
       </c>
       <c r="G10">
-        <v>0.002600791161272466</v>
+        <v>0.000836827646872651</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.749397169948921</v>
+        <v>2.615199109931922</v>
       </c>
       <c r="J10">
-        <v>0.2283895607469617</v>
+        <v>0.179772316877532</v>
       </c>
       <c r="K10">
-        <v>0.9960807796828703</v>
+        <v>1.611958668911882</v>
       </c>
       <c r="L10">
-        <v>0.2980511171317204</v>
+        <v>0.2363807430819236</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.134959091673579</v>
+        <v>1.553979643190928</v>
       </c>
       <c r="C11">
-        <v>0.0884941678029918</v>
+        <v>0.2715541544203006</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05936481840089236</v>
+        <v>0.01326580047212644</v>
       </c>
       <c r="F11">
-        <v>4.069842317182179</v>
+        <v>4.011027271247883</v>
       </c>
       <c r="G11">
-        <v>0.002597893296728303</v>
+        <v>0.0008314183018269821</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.775864740629771</v>
+        <v>2.723294961806545</v>
       </c>
       <c r="J11">
-        <v>0.2292836894152046</v>
+        <v>0.1814776564268854</v>
       </c>
       <c r="K11">
-        <v>1.022176463531594</v>
+        <v>1.734374922337082</v>
       </c>
       <c r="L11">
-        <v>0.3000747956968866</v>
+        <v>0.2527904984060712</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.142860472199004</v>
+        <v>1.595282098556766</v>
       </c>
       <c r="C12">
-        <v>0.09051768547948313</v>
+        <v>0.279232849918003</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05926189871420107</v>
+        <v>0.01348356015971852</v>
       </c>
       <c r="F12">
-        <v>4.08580109527955</v>
+        <v>4.083562405687417</v>
       </c>
       <c r="G12">
-        <v>0.002596816376006438</v>
+        <v>0.0008293811454692566</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.785984074143585</v>
+        <v>2.764850349790123</v>
       </c>
       <c r="J12">
-        <v>0.2296221092477708</v>
+        <v>0.1821372991528705</v>
       </c>
       <c r="K12">
-        <v>1.032154294846407</v>
+        <v>1.781264618529775</v>
       </c>
       <c r="L12">
-        <v>0.3008702083497354</v>
+        <v>0.2590763141864727</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.141153787622557</v>
+        <v>1.58636534311816</v>
       </c>
       <c r="C13">
-        <v>0.09008173259272212</v>
+        <v>0.2775746964419454</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0592838477335409</v>
+        <v>0.01343651369148269</v>
       </c>
       <c r="F13">
-        <v>4.082355424263653</v>
+        <v>4.067893131283313</v>
       </c>
       <c r="G13">
-        <v>0.002597047402823982</v>
+        <v>0.0008298194130014457</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.783800388917172</v>
+        <v>2.755871813530163</v>
       </c>
       <c r="J13">
-        <v>0.229549231279627</v>
+        <v>0.1819945883805474</v>
       </c>
       <c r="K13">
-        <v>1.030001120452141</v>
+        <v>1.771141176101366</v>
       </c>
       <c r="L13">
-        <v>0.3006976096505554</v>
+        <v>0.2577192264240296</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.135606898339518</v>
+        <v>1.557368009381321</v>
       </c>
       <c r="C14">
-        <v>0.08866057544460659</v>
+        <v>0.2721839202051513</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0593562535013632</v>
+        <v>0.01328364914958513</v>
       </c>
       <c r="F14">
-        <v>4.071151352517603</v>
+        <v>4.016973539086848</v>
       </c>
       <c r="G14">
-        <v>0.002597804288772634</v>
+        <v>0.0008312504889645629</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.776695324749483</v>
+        <v>2.726700862474118</v>
       </c>
       <c r="J14">
-        <v>0.2293115345399599</v>
+        <v>0.1815316376332063</v>
       </c>
       <c r="K14">
-        <v>1.022995421795173</v>
+        <v>1.738221452350274</v>
       </c>
       <c r="L14">
-        <v>0.3001396522851678</v>
+        <v>0.253306150202107</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.132223855178694</v>
+        <v>1.539668288562694</v>
       </c>
       <c r="C15">
-        <v>0.08779051897829504</v>
+        <v>0.2688945712326927</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0594012387701337</v>
+        <v>0.013190446774896</v>
       </c>
       <c r="F15">
-        <v>4.064313893208123</v>
+        <v>3.985920917107649</v>
       </c>
       <c r="G15">
-        <v>0.002598270561748674</v>
+        <v>0.0008321284741446801</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.772355867286038</v>
+        <v>2.708915978145015</v>
       </c>
       <c r="J15">
-        <v>0.2291659178351964</v>
+        <v>0.1812499248207402</v>
       </c>
       <c r="K15">
-        <v>1.018716729800531</v>
+        <v>1.71812881571023</v>
       </c>
       <c r="L15">
-        <v>0.2998016729668649</v>
+        <v>0.2506126067466568</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.113060663835228</v>
+        <v>1.4391427741283</v>
       </c>
       <c r="C16">
-        <v>0.08281127558609569</v>
+        <v>0.2502278456495901</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05966877971641438</v>
+        <v>0.01266287683753298</v>
       </c>
       <c r="F16">
-        <v>4.025519537669851</v>
+        <v>3.80998275645527</v>
       </c>
       <c r="G16">
-        <v>0.002600983409398502</v>
+        <v>0.0008371828324711095</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.747680949028194</v>
+        <v>2.608217865738467</v>
       </c>
       <c r="J16">
-        <v>0.2283311017272567</v>
+        <v>0.1796627158515776</v>
       </c>
       <c r="K16">
-        <v>0.9943887873454571</v>
+        <v>1.604029157261863</v>
       </c>
       <c r="L16">
-        <v>0.2979229404800634</v>
+        <v>0.2353179352199106</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.101504340969228</v>
+        <v>1.378232967325346</v>
       </c>
       <c r="C17">
-        <v>0.07976254367027025</v>
+        <v>0.2389286240982216</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05984162933195059</v>
+        <v>0.01234497788637334</v>
       </c>
       <c r="F17">
-        <v>4.002066659774016</v>
+        <v>3.703751870473383</v>
       </c>
       <c r="G17">
-        <v>0.002602684169124791</v>
+        <v>0.000840305459951507</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.732715298663052</v>
+        <v>2.54747391806039</v>
       </c>
       <c r="J17">
-        <v>0.2278186279014989</v>
+        <v>0.1787118986774701</v>
       </c>
       <c r="K17">
-        <v>0.9796351761257256</v>
+        <v>1.534906013177419</v>
       </c>
       <c r="L17">
-        <v>0.2968223065131212</v>
+        <v>0.2260545162961023</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.094930868994425</v>
+        <v>1.343460142148899</v>
       </c>
       <c r="C18">
-        <v>0.07801111054013177</v>
+        <v>0.2324812654895965</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0599442623214177</v>
+        <v>0.01216421147373303</v>
       </c>
       <c r="F18">
-        <v>3.988704279801652</v>
+        <v>3.643240189087294</v>
       </c>
       <c r="G18">
-        <v>0.002603675854585245</v>
+        <v>0.0008421101251512416</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.724170365468993</v>
+        <v>2.512892614665759</v>
       </c>
       <c r="J18">
-        <v>0.227523728114889</v>
+        <v>0.1781729042256188</v>
       </c>
       <c r="K18">
-        <v>0.9712120182739454</v>
+        <v>1.495447253758499</v>
       </c>
       <c r="L18">
-        <v>0.2962083557668223</v>
+        <v>0.220767868321559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.092717818016325</v>
+        <v>1.331729810306484</v>
       </c>
       <c r="C19">
-        <v>0.07741846503286354</v>
+        <v>0.230306782557065</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05997956504961444</v>
+        <v>0.0121033615311994</v>
       </c>
       <c r="F19">
-        <v>3.984201823643275</v>
+        <v>3.622849953547302</v>
       </c>
       <c r="G19">
-        <v>0.002604013936018171</v>
+        <v>0.0008427226833163064</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.721287988678242</v>
+        <v>2.501243293787624</v>
       </c>
       <c r="J19">
-        <v>0.2274238551071477</v>
+        <v>0.1779917177451935</v>
       </c>
       <c r="K19">
-        <v>0.9683708521267818</v>
+        <v>1.48213656067847</v>
       </c>
       <c r="L19">
-        <v>0.2960037666244659</v>
+        <v>0.2189847918028818</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.102726933571887</v>
+        <v>1.384689521558641</v>
       </c>
       <c r="C20">
-        <v>0.08008686637128903</v>
+        <v>0.2401260057853278</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05982289671844043</v>
+        <v>0.01237860273683111</v>
       </c>
       <c r="F20">
-        <v>4.004550101848224</v>
+        <v>3.714998532351871</v>
       </c>
       <c r="G20">
-        <v>0.002602501728774383</v>
+        <v>0.000839972171605488</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.734301902982281</v>
+        <v>2.553902785333406</v>
       </c>
       <c r="J20">
-        <v>0.2278731956453655</v>
+        <v>0.1788122867754467</v>
       </c>
       <c r="K20">
-        <v>0.9811992301933685</v>
+        <v>1.542232860427077</v>
       </c>
       <c r="L20">
-        <v>0.2969374942603906</v>
+        <v>0.2270362820896139</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.137233114532307</v>
+        <v>1.565872200136567</v>
       </c>
       <c r="C21">
-        <v>0.0890779111302038</v>
+        <v>0.2737646576279644</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05933485396321991</v>
+        <v>0.01332845903701951</v>
       </c>
       <c r="F21">
-        <v>4.074436974614571</v>
+        <v>4.031901067287436</v>
       </c>
       <c r="G21">
-        <v>0.002597581419410051</v>
+        <v>0.000830829856759895</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.778779627743091</v>
+        <v>2.735251612014608</v>
       </c>
       <c r="J21">
-        <v>0.2293813560529827</v>
+        <v>0.1816672271136639</v>
       </c>
       <c r="K21">
-        <v>1.025050559952575</v>
+        <v>1.747875707657641</v>
       </c>
       <c r="L21">
-        <v>0.3003027491147208</v>
+        <v>0.2546003635267056</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.160437868970661</v>
+        <v>1.687009867089387</v>
       </c>
       <c r="C22">
-        <v>0.09497380920615228</v>
+        <v>0.2963041899155598</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05904431969451096</v>
+        <v>0.01396847377081123</v>
       </c>
       <c r="F22">
-        <v>4.121246697126765</v>
+        <v>4.245053212558162</v>
       </c>
       <c r="G22">
-        <v>0.002594484790429979</v>
+        <v>0.0008249194325849086</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.808411901009151</v>
+        <v>2.857435701531855</v>
       </c>
       <c r="J22">
-        <v>0.2303660696078396</v>
+        <v>0.1836148240000171</v>
       </c>
       <c r="K22">
-        <v>1.054269340358218</v>
+        <v>1.885421694788761</v>
       </c>
       <c r="L22">
-        <v>0.3026716531828413</v>
+        <v>0.2730377512341704</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.14799334582014</v>
+        <v>1.622086424691219</v>
       </c>
       <c r="C23">
-        <v>0.09182520928501958</v>
+        <v>0.284218748815249</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05919679132494338</v>
+        <v>0.01362509031662107</v>
       </c>
       <c r="F23">
-        <v>4.096159511488281</v>
+        <v>4.130696818149971</v>
       </c>
       <c r="G23">
-        <v>0.002596126658777342</v>
+        <v>0.0008280686475098431</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.792544879211519</v>
+        <v>2.791863783620002</v>
       </c>
       <c r="J23">
-        <v>0.2298405836500592</v>
+        <v>0.1825672848396422</v>
       </c>
       <c r="K23">
-        <v>1.038623501295717</v>
+        <v>1.811697918377035</v>
       </c>
       <c r="L23">
-        <v>0.3013918430145139</v>
+        <v>0.2631559298133936</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.102173980123723</v>
+        <v>1.381769754442189</v>
       </c>
       <c r="C24">
-        <v>0.07994023596631905</v>
+        <v>0.2395845187982388</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05983135557835517</v>
+        <v>0.012363394726286</v>
       </c>
       <c r="F24">
-        <v>4.003426960834872</v>
+        <v>3.709912174842714</v>
       </c>
       <c r="G24">
-        <v>0.002602584166743012</v>
+        <v>0.0008401228217454211</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.733584415362884</v>
+        <v>2.550995236834552</v>
       </c>
       <c r="J24">
-        <v>0.2278485264176311</v>
+        <v>0.1787668776325049</v>
       </c>
       <c r="K24">
-        <v>0.9804919379263026</v>
+        <v>1.538919522511009</v>
       </c>
       <c r="L24">
-        <v>0.2968853592572458</v>
+        <v>0.2265923048264824</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.055557676970977</v>
+        <v>1.132339183085577</v>
       </c>
       <c r="C25">
-        <v>0.06720073490969014</v>
+        <v>0.1933713436068416</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06063884963562227</v>
+        <v>0.01108167535732907</v>
       </c>
       <c r="F25">
-        <v>3.90825688241506</v>
+        <v>3.278199526206322</v>
       </c>
       <c r="G25">
-        <v>0.002610064440153205</v>
+        <v>0.000853460138563856</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.672389079676549</v>
+        <v>2.304604407120365</v>
       </c>
       <c r="J25">
-        <v>0.2256943050297977</v>
+        <v>0.1749639181017741</v>
       </c>
       <c r="K25">
-        <v>0.9201852182338257</v>
+        <v>1.255895661051284</v>
       </c>
       <c r="L25">
-        <v>0.2927551490967204</v>
+        <v>0.1887111879402283</v>
       </c>
       <c r="M25">
         <v>0</v>
